--- a/examples/spreadsheets/current/filled/metadata_ICA_new_protocols.xlsx
+++ b/examples/spreadsheets/current/filled/metadata_ICA_new_protocols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/Dropbox/HCA/preview_release_new_protocol_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{705409CD-A9C0-D843-9B85-87460A70946E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{607A4A13-F9D0-D145-A72C-4D8B841C23AB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="37060" windowHeight="21500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7500" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7500" uniqueCount="1729">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -5169,6 +5169,54 @@
   </si>
   <si>
     <t>8_CB8_cells_r2</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.protocol_core.start_time</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.protocol_core.process_location</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.protocol_core.operator_identity</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.protocol_core.start_time</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.protocol_core.process_location</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.protocol_core.operator_identity</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.process_id</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.start_time</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.protocol_location</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.protocol_core.operator_identity</t>
   </si>
 </sst>
 </file>
@@ -5788,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5876,22 +5924,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>1723</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>1724</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>1725</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>1726</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>1727</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>1728</v>
       </c>
       <c r="G4" t="s">
         <v>266</v>
@@ -5909,7 +5957,7 @@
         <v>270</v>
       </c>
       <c r="L4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M4" t="s">
         <v>274</v>
@@ -7288,7 +7336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
@@ -36011,8 +36059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36143,7 +36191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36222,19 +36272,19 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>1713</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>1714</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>1715</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>1716</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>1717</v>
       </c>
       <c r="G4" t="s">
         <v>214</v>
@@ -36272,8 +36322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36474,22 +36524,22 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>1718</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>1719</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>1720</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>1721</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>1722</v>
       </c>
       <c r="G4" t="s">
         <v>227</v>
